--- a/Data Collection/video_collection.xlsx
+++ b/Data Collection/video_collection.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibamberg-my.sharepoint.com/personal/fabian_ulrich_stud_uni-bamberg_de/Documents/Master/Masterarbeit/Data Collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Master-Thesis\Data Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="450" documentId="11_AD4DB114E441178AC67DF4C0BE51CEA0693EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DD912F8-B1CC-4DE9-ACA2-75C57D24AC5E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC87CE5-33D3-47B5-A76F-397FB44F9B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <author>Fabian Ulrich</author>
   </authors>
   <commentList>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{FB0CBA19-3957-4A9F-8C8F-C398B038FFD1}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{FB0CBA19-3957-4A9F-8C8F-C398B038FFD1}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,457 @@
         </r>
       </text>
     </comment>
-    <comment ref="R20" authorId="0" shapeId="0" xr:uid="{72BAF8EA-F97F-4304-B93E-A6925507233B}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{566AFFFC-87CF-4495-A075-1D02664C6F08}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabian Ulrich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+422 language 
+104 no comments </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{0AC2BF71-F829-4E08-904C-311358E66D06}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabian Ulrich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+446 language
+75 no comments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{07BF89E1-0A04-4676-ACCD-3D7DB6F09842}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabian Ulrich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+392 language
+95 no comments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{B958B536-7E2C-4202-8655-53BDCC6D51BB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabian Ulrich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+397 language
+87 no comments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{A0C0E74E-3777-4A2B-9D61-E711A052593D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabian Ulrich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+407 language
+108 no comments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0" xr:uid="{5D0C093C-111C-47C1-8FF9-CDE75E2E02C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabian Ulrich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+367 language
+100 no comments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{25E84FE3-1D41-49A5-B18C-7B3AB0C2F9D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabian Ulrich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+390 language
+92 no comments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{60D7D0E7-38C1-45A8-A25B-7691CC3C1C00}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabian Ulrich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+369 language
+88 no comments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{F7328425-80A3-4835-9928-5247EF12D294}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabian Ulrich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+429 language
+120 no comments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{255FE93A-82AC-4A22-BFAD-DC546ABF65AF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabian Ulrich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+429 language
+100 no comments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{5F0D9BD6-D8BF-4F5B-AFA6-A4D04886E9C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabian Ulrich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+379 language
+91 no comments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{84CA083D-0F15-4CD0-85AB-72D32CF2A3BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabian Ulrich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+409 language
+121 no comments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{367D9FEE-E905-4E28-8893-786013D69E98}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabian Ulrich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+415 language
+159 no comments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L15" authorId="0" shapeId="0" xr:uid="{D6DB0633-9FFB-42FA-B31F-F2ACB90BDEC4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabian Ulrich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+397 language
+122 no comments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L16" authorId="0" shapeId="0" xr:uid="{AAD7528B-BA48-499C-B030-3B0DE14C0DE0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabian Ulrich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+396 language
+146 no comments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L17" authorId="0" shapeId="0" xr:uid="{AD273F91-AE6C-4B67-8B65-CB9D0381A15F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabian Ulrich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+401 language
+139 no comments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L18" authorId="0" shapeId="0" xr:uid="{67FFF76C-D340-46ED-8D30-5A476E74A33E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabian Ulrich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+408 language
+126 no comments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L19" authorId="0" shapeId="0" xr:uid="{C767EC48-5C28-4897-ABE4-581ADAD44FB5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabian Ulrich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+413 language
+108 comments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L20" authorId="0" shapeId="0" xr:uid="{72BAF8EA-F97F-4304-B93E-A6925507233B}">
       <text>
         <r>
           <rPr>
@@ -89,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R21" authorId="0" shapeId="0" xr:uid="{7903EC37-EB39-4888-81C1-2588176A1569}">
+    <comment ref="L21" authorId="0" shapeId="0" xr:uid="{7903EC37-EB39-4888-81C1-2588176A1569}">
       <text>
         <r>
           <rPr>
@@ -119,7 +569,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Published after</t>
   </si>
@@ -256,15 +706,6 @@
     <t>E-Auto - File</t>
   </si>
   <si>
-    <t>Ladeinfrastruktur - File</t>
-  </si>
-  <si>
-    <t>Ladesäule - File</t>
-  </si>
-  <si>
-    <t>Ladenetzwerk - File</t>
-  </si>
-  <si>
     <t>Elektromobilität - Results</t>
   </si>
   <si>
@@ -274,15 +715,6 @@
     <t>E-Auto - Results</t>
   </si>
   <si>
-    <t>Ladeinfrastruktur - Results</t>
-  </si>
-  <si>
-    <t>Ladesäule - Results</t>
-  </si>
-  <si>
-    <t>Ladenetzwerk - Results</t>
-  </si>
-  <si>
     <t>Bafa</t>
   </si>
   <si>
@@ -295,12 +727,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Unlabeled</t>
-  </si>
-  <si>
-    <t>Labeled</t>
-  </si>
-  <si>
     <t>Total - File</t>
   </si>
   <si>
@@ -349,85 +775,238 @@
     <t>Juli-21</t>
   </si>
   <si>
-    <t>Elektromobilität - Dec21</t>
-  </si>
-  <si>
-    <t>Elektroauto - Dec21</t>
-  </si>
-  <si>
-    <t>E-Auto - Dec21</t>
-  </si>
-  <si>
-    <t>E-Auto - Nov21</t>
-  </si>
-  <si>
-    <t>Elektroauto - Nov21</t>
-  </si>
-  <si>
-    <t>Elektromobilität - Nov21</t>
-  </si>
-  <si>
-    <t>Elektromobilität - Oct21</t>
-  </si>
-  <si>
-    <t>Elektroauto- Oct21</t>
-  </si>
-  <si>
-    <t>E-Auto- Oct21</t>
-  </si>
-  <si>
-    <t>E-Auto- Sep21</t>
-  </si>
-  <si>
-    <t>Elektroauto- Sep21</t>
-  </si>
-  <si>
-    <t>Elektromobilität- Sep21</t>
-  </si>
-  <si>
-    <t>Elektromobilität- Aug21</t>
-  </si>
-  <si>
-    <t>Elektroauto- Aug21</t>
-  </si>
-  <si>
-    <t>E-Auto- Aug21</t>
-  </si>
-  <si>
-    <t>E-Auto- Juli21</t>
-  </si>
-  <si>
-    <t>Elektroauto- Juli21</t>
-  </si>
-  <si>
-    <t>Elektromobilität- Juli21</t>
-  </si>
-  <si>
-    <t>Elektromobilität- Jun21</t>
-  </si>
-  <si>
-    <t>Elektroauto- Jun21</t>
-  </si>
-  <si>
-    <t>E-Auto- Jun21</t>
-  </si>
-  <si>
-    <t>E-Auto- Mai21</t>
-  </si>
-  <si>
-    <t>Elektroauto- Mai21</t>
-  </si>
-  <si>
-    <t>Elektromobilität- Mai21</t>
-  </si>
-  <si>
-    <t>Elektromobilität- Apr21</t>
-  </si>
-  <si>
-    <t>Elektroauto- Apr21</t>
-  </si>
-  <si>
-    <t>E-Auto- Apr21</t>
+    <t>Elektromobilität-December_21</t>
+  </si>
+  <si>
+    <t>Elektroauto-December_21</t>
+  </si>
+  <si>
+    <t>E-Auto-December_21</t>
+  </si>
+  <si>
+    <t>Elektromobilität-October_21</t>
+  </si>
+  <si>
+    <t>Elektroauto-October_21</t>
+  </si>
+  <si>
+    <t>E-Auto-October_21</t>
+  </si>
+  <si>
+    <t>E-Auto-September_21</t>
+  </si>
+  <si>
+    <t>Elektroauto-September_21</t>
+  </si>
+  <si>
+    <t>Elektromobilität-September_21</t>
+  </si>
+  <si>
+    <t>Elektromobilität-August_21</t>
+  </si>
+  <si>
+    <t>Elektroauto-Juli_21</t>
+  </si>
+  <si>
+    <t>Elektromobilität-Juli_21</t>
+  </si>
+  <si>
+    <t>Elektromobilität-June_21</t>
+  </si>
+  <si>
+    <t>Elektroauto-June_21</t>
+  </si>
+  <si>
+    <t>E-Auto-June_21</t>
+  </si>
+  <si>
+    <t>E-Auto-Mai_21</t>
+  </si>
+  <si>
+    <t>Elektromobilität-March_21</t>
+  </si>
+  <si>
+    <t>Elektroauto-March_21</t>
+  </si>
+  <si>
+    <t>E-Auto-March_21</t>
+  </si>
+  <si>
+    <t>E-Auto-Feb_21</t>
+  </si>
+  <si>
+    <t>Elektroauto-Feb_21</t>
+  </si>
+  <si>
+    <t>Elektromobilität-Feb_21</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>In process</t>
+  </si>
+  <si>
+    <t>December_21-Total</t>
+  </si>
+  <si>
+    <t>October_21-Total</t>
+  </si>
+  <si>
+    <t>September_21-Total</t>
+  </si>
+  <si>
+    <t>June_21-Total</t>
+  </si>
+  <si>
+    <t>Juli_21-Total</t>
+  </si>
+  <si>
+    <t>August_21-Total</t>
+  </si>
+  <si>
+    <t>March_21-Total</t>
+  </si>
+  <si>
+    <t>Feb_21-Total</t>
+  </si>
+  <si>
+    <t>Elektroauto-August_21</t>
+  </si>
+  <si>
+    <t>E-Auto-August_21</t>
+  </si>
+  <si>
+    <t>E-Auto-Juli_21</t>
+  </si>
+  <si>
+    <t>Elektromobilität-Jan_21</t>
+  </si>
+  <si>
+    <t>Elektroauto-Jan_21</t>
+  </si>
+  <si>
+    <t>E-Auto-Jan_21</t>
+  </si>
+  <si>
+    <t>E-Auto-Dec_20</t>
+  </si>
+  <si>
+    <t>Elektroauto-Dec_20</t>
+  </si>
+  <si>
+    <t>Elektromobilität-Dec_20</t>
+  </si>
+  <si>
+    <t>E-Auto-Oct_20</t>
+  </si>
+  <si>
+    <t>Elektroauto-Oct_20</t>
+  </si>
+  <si>
+    <t>Elektromobilität-Oct_20</t>
+  </si>
+  <si>
+    <t>E-Auto-Aug_20</t>
+  </si>
+  <si>
+    <t>Elektroauto-Aug_20</t>
+  </si>
+  <si>
+    <t>Elektromobilität-Aug_20</t>
+  </si>
+  <si>
+    <t>E-Auto-Sep_20</t>
+  </si>
+  <si>
+    <t>Elektroauto-Sep_20</t>
+  </si>
+  <si>
+    <t>Elektromobilität-Sep_20</t>
+  </si>
+  <si>
+    <t>Elektroauto-Juli_20</t>
+  </si>
+  <si>
+    <t>Elektromobilität-Juli_20</t>
+  </si>
+  <si>
+    <t>E-Auto-Juli_20</t>
+  </si>
+  <si>
+    <t>Juli_20-Total</t>
+  </si>
+  <si>
+    <t>Aug_20-Total</t>
+  </si>
+  <si>
+    <t>Sep_20-Total</t>
+  </si>
+  <si>
+    <t>Oct_20-Total</t>
+  </si>
+  <si>
+    <t>Dec_20-Total</t>
+  </si>
+  <si>
+    <t>Jan_21-Total</t>
+  </si>
+  <si>
+    <t>Elektromobilität-Nov_20</t>
+  </si>
+  <si>
+    <t>Elektroauto-Nov_20</t>
+  </si>
+  <si>
+    <t>E-Auto-Nov_20</t>
+  </si>
+  <si>
+    <t>E-Auto-Nov_21</t>
+  </si>
+  <si>
+    <t>Elektroauto-Nov_21</t>
+  </si>
+  <si>
+    <t>Elektromobilität-Nov_21</t>
+  </si>
+  <si>
+    <t>Nov_21-Total</t>
+  </si>
+  <si>
+    <t>Nov_20-Total</t>
+  </si>
+  <si>
+    <t>Elektromobilität-Mai_21</t>
+  </si>
+  <si>
+    <t>Elektroauto-Mai_21</t>
+  </si>
+  <si>
+    <t>E-Auto-Apr_21</t>
+  </si>
+  <si>
+    <t>Elektroauto-Apr_21</t>
+  </si>
+  <si>
+    <t>Elektromobilität-Apr_21</t>
+  </si>
+  <si>
+    <t>Apr_21-Total</t>
+  </si>
+  <si>
+    <t>Mai_21-Total</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Replies</t>
+  </si>
+  <si>
+    <t>Comments - File</t>
+  </si>
+  <si>
+    <t>Replies - File</t>
   </si>
 </sst>
 </file>
@@ -464,18 +1043,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -503,32 +1076,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -585,46 +1153,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCE58A5F-AE46-4611-A150-AB99DDC63CC4}" name="Tabelle1" displayName="Tabelle1" ref="A1:S22" totalsRowCount="1">
-  <autoFilter ref="A1:S21" xr:uid="{FCE58A5F-AE46-4611-A150-AB99DDC63CC4}"/>
-  <tableColumns count="19">
-    <tableColumn id="16" xr3:uid="{75BA45DC-5F99-43A3-B83B-AA908EF62E1D}" name="Month" totalsRowDxfId="15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCE58A5F-AE46-4611-A150-AB99DDC63CC4}" name="Tabelle1" displayName="Tabelle1" ref="A1:Q22" totalsRowCount="1">
+  <autoFilter ref="A1:Q21" xr:uid="{FCE58A5F-AE46-4611-A150-AB99DDC63CC4}"/>
+  <tableColumns count="17">
+    <tableColumn id="16" xr3:uid="{75BA45DC-5F99-43A3-B83B-AA908EF62E1D}" name="Month" totalsRowDxfId="13"/>
     <tableColumn id="1" xr3:uid="{AE6053A3-AF0F-4399-8F59-C60F0C674FC6}" name="Published after"/>
     <tableColumn id="2" xr3:uid="{19FCA682-AFC4-479E-AB12-6B5E8E091A1B}" name="Published before"/>
     <tableColumn id="3" xr3:uid="{154E6792-05F2-410F-8084-D185E1B7E5BB}" name="Elektromobilität - File"/>
-    <tableColumn id="4" xr3:uid="{8E7A613B-18FC-4874-A3A1-E6756765E829}" name="Elektromobilität - Results" totalsRowFunction="custom" totalsRowDxfId="14">
+    <tableColumn id="4" xr3:uid="{8E7A613B-18FC-4874-A3A1-E6756765E829}" name="Elektromobilität - Results" totalsRowFunction="custom" totalsRowDxfId="12">
       <totalsRowFormula>SUM(Tabelle1[Elektromobilität - Results])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0575D7CF-079A-412B-AA37-40D1F703E168}" name="Elektroauto - File" totalsRowDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{B0E2CB48-F6EF-41AE-B4C5-9A0B8213BD57}" name="Elektroauto - Results" totalsRowFunction="custom" totalsRowDxfId="12">
+    <tableColumn id="5" xr3:uid="{0575D7CF-079A-412B-AA37-40D1F703E168}" name="Elektroauto - File" totalsRowDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{B0E2CB48-F6EF-41AE-B4C5-9A0B8213BD57}" name="Elektroauto - Results" totalsRowFunction="custom" totalsRowDxfId="10">
       <totalsRowFormula>SUM(Tabelle1[Elektroauto - Results])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{01F4A774-5334-469A-AE11-277FF9332919}" name="E-Auto - File" totalsRowDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{1BF2BF5A-2EAC-4F89-A660-427BE9CB4EDF}" name="E-Auto - Results" totalsRowFunction="custom" totalsRowDxfId="10">
+    <tableColumn id="7" xr3:uid="{01F4A774-5334-469A-AE11-277FF9332919}" name="E-Auto - File" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{1BF2BF5A-2EAC-4F89-A660-427BE9CB4EDF}" name="E-Auto - Results" totalsRowFunction="custom" totalsRowDxfId="8">
       <totalsRowFormula>SUM(Tabelle1[E-Auto - Results])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7F7CE530-C0B5-4DB3-A6B5-FA13DCAED6F1}" name="Ladeinfrastruktur - File" totalsRowDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{8225A0E6-F30E-41F3-AB79-B0C0C70B577A}" name="Ladeinfrastruktur - Results" totalsRowFunction="custom" totalsRowDxfId="8">
-      <totalsRowFormula>SUM(Tabelle1[Ladeinfrastruktur - Results])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{9C7D923A-A2D5-45B3-8F6A-2CAFBB0E4ED4}" name="Ladesäule - File" totalsRowDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{030A851F-4226-4348-966E-2B8E691165A9}" name="Ladesäule - Results" totalsRowFunction="custom" totalsRowDxfId="6">
-      <totalsRowFormula>SUM(Tabelle1[Ladesäule - Results])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{36864F41-06A8-4E0C-8A1A-7650F203B8E5}" name="Ladenetzwerk - File" totalsRowDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{A791E475-5315-4358-83A4-ECACF8A23F04}" name="Ladenetzwerk - Results" totalsRowFunction="custom" totalsRowDxfId="4">
-      <totalsRowFormula>SUM(Tabelle1[Ladenetzwerk - Results])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="17" xr3:uid="{45172EA4-E743-4F86-84AB-25CD142B81D9}" name="Total - File" totalsRowDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{BBD033E8-B9B1-4C86-BA8C-5DEB1A84ABF8}" name="Total - Results" totalsRowFunction="custom" totalsRowDxfId="2">
+    <tableColumn id="17" xr3:uid="{45172EA4-E743-4F86-84AB-25CD142B81D9}" name="Total - File" totalsRowDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{BBD033E8-B9B1-4C86-BA8C-5DEB1A84ABF8}" name="Total - Results" totalsRowFunction="custom" totalsRowDxfId="6">
       <totalsRowFormula>SUM(Tabelle1[Total - Results])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{E815B0BC-2BF7-4337-A646-A58A8D960F89}" name="Total - no comments - wrong language" totalsRowFunction="custom" totalsRowDxfId="1">
+    <tableColumn id="19" xr3:uid="{E815B0BC-2BF7-4337-A646-A58A8D960F89}" name="Total - no comments - wrong language" totalsRowFunction="custom" totalsRowDxfId="5">
       <totalsRowFormula>SUM(Tabelle1[Total - no comments - wrong language])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{FE9B4390-A10A-44F2-A47B-FDF76D40F995}" name="Total - Coded" totalsRowFunction="custom" totalsRowDxfId="0">
+    <tableColumn id="20" xr3:uid="{FE9B4390-A10A-44F2-A47B-FDF76D40F995}" name="Total - Coded" totalsRowFunction="custom" totalsRowDxfId="4">
       <totalsRowFormula>SUM(Tabelle1[Total - Coded])</totalsRowFormula>
     </tableColumn>
+    <tableColumn id="11" xr3:uid="{B00E8E5C-73A1-467F-BA8E-83571799C375}" name="Comments - File" totalsRowDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{441A2C40-353C-40B2-A1ED-FF1D337CC208}" name="Comments" totalsRowDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{08A42BB0-A96D-420F-ADC6-D6A8885823DA}" name="Replies - File" totalsRowDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{2124F31D-22C6-45C6-AA93-E894805C40A8}" name="Replies" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -893,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,14 +1476,14 @@
     <col min="13" max="13" width="20.7109375" customWidth="1"/>
     <col min="14" max="14" width="24.140625" customWidth="1"/>
     <col min="15" max="15" width="23.5703125" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
     <col min="17" max="17" width="15.5703125" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -935,54 +1495,48 @@
         <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
         <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="M1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="N1" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="O1" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="P1" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="Q1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -990,24 +1544,36 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="D2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="2">
+        <v>364</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="2">
+        <v>395</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="2">
+        <v>452</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1061</v>
+      </c>
+      <c r="L2" s="2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>44044</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1016,24 +1582,36 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="D3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="2">
+        <v>364</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="2">
+        <v>395</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="2">
+        <v>452</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="2">
+        <v>955</v>
+      </c>
+      <c r="L3" s="2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>44075</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1042,24 +1620,36 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="D4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="2">
+        <v>342</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="2">
+        <v>418</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="2">
+        <v>461</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1038</v>
+      </c>
+      <c r="L4" s="2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>44105</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1068,24 +1658,36 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="D5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="2">
+        <v>384</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="2">
+        <v>388</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="2">
+        <v>437</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1006</v>
+      </c>
+      <c r="L5" s="2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>44136</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1094,24 +1696,36 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="D6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="2">
+        <v>357</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="2">
+        <v>386</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="2">
+        <v>479</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1036</v>
+      </c>
+      <c r="L6" s="2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>44166</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1120,24 +1734,36 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="D7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="2">
+        <v>316</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="2">
+        <v>391</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="2">
+        <v>440</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="2">
+        <v>969</v>
+      </c>
+      <c r="L7" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>44197</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1146,24 +1772,36 @@
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="D8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="2">
+        <v>362</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="2">
+        <v>402</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="2">
+        <v>467</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1022</v>
+      </c>
+      <c r="L8" s="2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>44228</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1172,24 +1810,39 @@
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="D9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="2">
+        <v>364</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="2">
+        <v>395</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="2">
+        <v>452</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1011</v>
+      </c>
+      <c r="L9" s="2">
+        <v>532</v>
+      </c>
+      <c r="M9">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>44256</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1198,24 +1851,39 @@
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="D10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="2">
+        <v>393</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="2">
+        <v>412</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="2">
+        <v>462</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1105</v>
+      </c>
+      <c r="L10" s="2">
+        <v>529</v>
+      </c>
+      <c r="M10">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>44287</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1224,31 +1892,37 @@
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="2">
+        <v>374</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="2">
+        <v>405</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="2">
+        <v>476</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1075</v>
+      </c>
+      <c r="L11" s="2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -1256,30 +1930,36 @@
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="D12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="2">
+        <v>324</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="2">
+        <v>400</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="2">
+        <v>447</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K12" s="2">
+        <v>998</v>
+      </c>
+      <c r="L12" s="2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>44348</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1288,31 +1968,40 @@
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="6" t="s">
+      <c r="D13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2">
+        <v>403</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="2">
+        <v>386</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="2">
+        <v>466</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K13" s="2">
+        <v>1079</v>
+      </c>
+      <c r="L13" s="2">
+        <v>525</v>
+      </c>
+      <c r="M13">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>26</v>
@@ -1320,30 +2009,36 @@
       <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="D14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2">
+        <v>359</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="2">
+        <v>430</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="2">
+        <v>500</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1110</v>
+      </c>
+      <c r="L14" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>44409</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1352,30 +2047,39 @@
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="D15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2">
+        <v>358</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="2">
+        <v>397</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="2">
+        <v>455</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1029</v>
+      </c>
+      <c r="L15" s="2">
+        <v>479</v>
+      </c>
+      <c r="M15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>44440</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1384,30 +2088,39 @@
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="D16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2">
+        <v>380</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="2">
+        <v>413</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="2">
+        <v>458</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1067</v>
+      </c>
+      <c r="L16" s="2">
+        <v>493</v>
+      </c>
+      <c r="M16">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>44470</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1416,30 +2129,39 @@
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="D17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2">
+        <v>415</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="2">
+        <v>414</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="2">
+        <v>518</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1109</v>
+      </c>
+      <c r="L17" s="2">
+        <v>541</v>
+      </c>
+      <c r="M17">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>44501</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1448,30 +2170,39 @@
       <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="D18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="2">
+        <v>377</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="2">
+        <v>414</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="2">
+        <v>446</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1078</v>
+      </c>
+      <c r="L18" s="2">
+        <v>523</v>
+      </c>
+      <c r="M18">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>44531</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1480,30 +2211,39 @@
       <c r="C19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="D19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="2">
+        <v>599</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="2">
+        <v>432</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="2">
+        <v>806</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1093</v>
+      </c>
+      <c r="L19" s="2">
+        <v>538</v>
+      </c>
+      <c r="M19">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>44562</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1512,45 +2252,39 @@
       <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>66</v>
+      <c r="D20" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="E20" s="2">
         <v>600</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>67</v>
+      <c r="F20" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="G20" s="2">
         <v>2750</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>68</v>
+      <c r="H20" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="I20" s="2">
         <v>2700</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q20" s="2">
+      <c r="J20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="2">
         <v>5324</v>
       </c>
-      <c r="R20" s="2">
+      <c r="L20" s="2">
         <v>1356</v>
       </c>
-      <c r="S20">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="M20">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>44593</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1559,125 +2293,116 @@
       <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>63</v>
+      <c r="D21" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E21" s="2">
         <v>650</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>64</v>
+      <c r="F21" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="G21" s="2">
         <v>3350</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>65</v>
+      <c r="H21" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="I21" s="2">
         <v>8600</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q21" s="2">
+      <c r="J21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="2">
         <v>11187</v>
       </c>
-      <c r="R21" s="2">
+      <c r="L21" s="2">
         <v>1763</v>
       </c>
-      <c r="S21">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="E22" s="2">
         <f>SUM(Tabelle1[Elektromobilität - Results])</f>
-        <v>1250</v>
+        <v>8085</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
         <f>SUM(Tabelle1[Elektroauto - Results])</f>
-        <v>6100</v>
+        <v>13373</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2">
         <f>SUM(Tabelle1[E-Auto - Results])</f>
-        <v>11300</v>
+        <v>19974</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2">
-        <f>SUM(Tabelle1[Ladeinfrastruktur - Results])</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="2"/>
+        <f>SUM(Tabelle1[Total - Results])</f>
+        <v>35352</v>
+      </c>
+      <c r="L22" s="2">
+        <f>SUM(Tabelle1[Total - no comments - wrong language])</f>
+        <v>12253</v>
+      </c>
       <c r="M22" s="2">
-        <f>SUM(Tabelle1[Ladesäule - Results])</f>
-        <v>0</v>
+        <f>SUM(Tabelle1[Total - Coded])</f>
+        <v>1986</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="2">
-        <f>SUM(Tabelle1[Ladenetzwerk - Results])</f>
-        <v>0</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2">
-        <f>SUM(Tabelle1[Total - Results])</f>
-        <v>16511</v>
-      </c>
-      <c r="R22" s="2">
-        <f>SUM(Tabelle1[Total - no comments - wrong language])</f>
-        <v>3119</v>
-      </c>
-      <c r="S22" s="2">
-        <f>SUM(Tabelle1[Total - Coded])</f>
-        <v>2434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2">
+        <f>Tabelle1[[#Totals],[Total - Results]]</f>
+        <v>35352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="2">
-        <f>SUM(Tabelle1[[#Totals],[Elektromobilität - File]:[Ladenetzwerk - Results]])</f>
-        <v>18650</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
       <c r="B26" s="2">
-        <f>Tabelle1[[#Totals],[Total - Results]]</f>
-        <v>16511</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+        <f>Tabelle1[[#Totals],[Total - Coded]]</f>
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Data Collection/video_collection.xlsx
+++ b/Data Collection/video_collection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Master-Thesis\Data Collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Master-Thesis\Data Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC87CE5-33D3-47B5-A76F-397FB44F9B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFCEB6B-466B-4B23-AB9B-6020C881C6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10760" yWindow="2730" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="video_collection" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -569,7 +568,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="147">
   <si>
     <t>Published after</t>
   </si>
@@ -1007,6 +1006,9 @@
   </si>
   <si>
     <t>Replies - File</t>
+  </si>
+  <si>
+    <t>translated</t>
   </si>
 </sst>
 </file>
@@ -1093,8 +1095,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1455,33 +1457,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="9" max="9" width="24.453125" customWidth="1"/>
+    <col min="10" max="10" width="26.26953125" customWidth="1"/>
+    <col min="11" max="11" width="17.54296875" customWidth="1"/>
+    <col min="12" max="12" width="19.7265625" customWidth="1"/>
+    <col min="13" max="13" width="20.7265625" customWidth="1"/>
+    <col min="14" max="14" width="24.1796875" customWidth="1"/>
+    <col min="15" max="15" width="23.54296875" customWidth="1"/>
+    <col min="16" max="16" width="15.7265625" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1534,7 +1536,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
@@ -1571,8 +1573,11 @@
       <c r="L2" s="2">
         <v>503</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>44044</v>
       </c>
@@ -1609,8 +1614,11 @@
       <c r="L3" s="2">
         <v>413</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>44075</v>
       </c>
@@ -1647,8 +1655,11 @@
       <c r="L4" s="2">
         <v>516</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>44105</v>
       </c>
@@ -1685,8 +1696,11 @@
       <c r="L5" s="2">
         <v>501</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>44136</v>
       </c>
@@ -1723,8 +1737,11 @@
       <c r="L6" s="2">
         <v>493</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>44166</v>
       </c>
@@ -1761,8 +1778,11 @@
       <c r="L7" s="2">
         <v>485</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>44197</v>
       </c>
@@ -1799,8 +1819,11 @@
       <c r="L8" s="2">
         <v>521</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>44228</v>
       </c>
@@ -1841,7 +1864,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>44256</v>
       </c>
@@ -1882,7 +1905,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>44287</v>
       </c>
@@ -1919,8 +1942,11 @@
       <c r="L11" s="2">
         <v>524</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
@@ -1957,8 +1983,11 @@
       <c r="L12" s="2">
         <v>503</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>44348</v>
       </c>
@@ -1999,7 +2028,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
@@ -2036,8 +2065,11 @@
       <c r="L14" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>44409</v>
       </c>
@@ -2077,8 +2109,11 @@
       <c r="M15">
         <v>172</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>44440</v>
       </c>
@@ -2118,8 +2153,11 @@
       <c r="M16">
         <v>184</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>44470</v>
       </c>
@@ -2159,8 +2197,11 @@
       <c r="M17">
         <v>196</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>44501</v>
       </c>
@@ -2201,7 +2242,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>44531</v>
       </c>
@@ -2241,8 +2282,11 @@
       <c r="M19">
         <v>204</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>44562</v>
       </c>
@@ -2282,8 +2326,11 @@
       <c r="M20">
         <v>243</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>44593</v>
       </c>
@@ -2323,8 +2370,11 @@
       <c r="M21">
         <v>267</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="E22" s="2">
         <f>SUM(Tabelle1[Elektromobilität - Results])</f>
@@ -2351,14 +2401,14 @@
       </c>
       <c r="M22" s="2">
         <f>SUM(Tabelle1[Total - Coded])</f>
-        <v>1986</v>
+        <v>3783</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2366,7 +2416,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2375,32 +2425,32 @@
         <v>35352</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="2">
         <f>Tabelle1[[#Totals],[Total - Coded]]</f>
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>91</v>
       </c>
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>90</v>
       </c>
       <c r="B29" s="3"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
     </row>

--- a/Data Collection/video_collection.xlsx
+++ b/Data Collection/video_collection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Master-Thesis\Data Collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Master-Thesis\Data Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFCEB6B-466B-4B23-AB9B-6020C881C6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653925F3-F382-4802-B533-564F526980A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10760" yWindow="2730" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26280" yWindow="345" windowWidth="22710" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="video_collection" sheetId="1" r:id="rId1"/>
@@ -568,7 +568,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="150">
   <si>
     <t>Published after</t>
   </si>
@@ -1008,14 +1008,23 @@
     <t>Replies - File</t>
   </si>
   <si>
-    <t>translated</t>
+    <t>Comment Job</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Translated</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,6 +1052,12 @@
       <color indexed="81"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1095,10 +1110,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1155,38 +1176,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCE58A5F-AE46-4611-A150-AB99DDC63CC4}" name="Tabelle1" displayName="Tabelle1" ref="A1:Q22" totalsRowCount="1">
-  <autoFilter ref="A1:Q21" xr:uid="{FCE58A5F-AE46-4611-A150-AB99DDC63CC4}"/>
-  <tableColumns count="17">
-    <tableColumn id="16" xr3:uid="{75BA45DC-5F99-43A3-B83B-AA908EF62E1D}" name="Month" totalsRowDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCE58A5F-AE46-4611-A150-AB99DDC63CC4}" name="Tabelle1" displayName="Tabelle1" ref="A1:S22" totalsRowCount="1">
+  <autoFilter ref="A1:S21" xr:uid="{FCE58A5F-AE46-4611-A150-AB99DDC63CC4}"/>
+  <tableColumns count="19">
+    <tableColumn id="16" xr3:uid="{75BA45DC-5F99-43A3-B83B-AA908EF62E1D}" name="Month" totalsRowDxfId="15"/>
     <tableColumn id="1" xr3:uid="{AE6053A3-AF0F-4399-8F59-C60F0C674FC6}" name="Published after"/>
     <tableColumn id="2" xr3:uid="{19FCA682-AFC4-479E-AB12-6B5E8E091A1B}" name="Published before"/>
     <tableColumn id="3" xr3:uid="{154E6792-05F2-410F-8084-D185E1B7E5BB}" name="Elektromobilität - File"/>
-    <tableColumn id="4" xr3:uid="{8E7A613B-18FC-4874-A3A1-E6756765E829}" name="Elektromobilität - Results" totalsRowFunction="custom" totalsRowDxfId="12">
+    <tableColumn id="4" xr3:uid="{8E7A613B-18FC-4874-A3A1-E6756765E829}" name="Elektromobilität - Results" totalsRowFunction="custom" totalsRowDxfId="14">
       <totalsRowFormula>SUM(Tabelle1[Elektromobilität - Results])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0575D7CF-079A-412B-AA37-40D1F703E168}" name="Elektroauto - File" totalsRowDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{B0E2CB48-F6EF-41AE-B4C5-9A0B8213BD57}" name="Elektroauto - Results" totalsRowFunction="custom" totalsRowDxfId="10">
+    <tableColumn id="5" xr3:uid="{0575D7CF-079A-412B-AA37-40D1F703E168}" name="Elektroauto - File" totalsRowDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{B0E2CB48-F6EF-41AE-B4C5-9A0B8213BD57}" name="Elektroauto - Results" totalsRowFunction="custom" totalsRowDxfId="12">
       <totalsRowFormula>SUM(Tabelle1[Elektroauto - Results])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{01F4A774-5334-469A-AE11-277FF9332919}" name="E-Auto - File" totalsRowDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{1BF2BF5A-2EAC-4F89-A660-427BE9CB4EDF}" name="E-Auto - Results" totalsRowFunction="custom" totalsRowDxfId="8">
+    <tableColumn id="7" xr3:uid="{01F4A774-5334-469A-AE11-277FF9332919}" name="E-Auto - File" totalsRowDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{1BF2BF5A-2EAC-4F89-A660-427BE9CB4EDF}" name="E-Auto - Results" totalsRowFunction="custom" totalsRowDxfId="10">
       <totalsRowFormula>SUM(Tabelle1[E-Auto - Results])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{45172EA4-E743-4F86-84AB-25CD142B81D9}" name="Total - File" totalsRowDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{BBD033E8-B9B1-4C86-BA8C-5DEB1A84ABF8}" name="Total - Results" totalsRowFunction="custom" totalsRowDxfId="6">
+    <tableColumn id="17" xr3:uid="{45172EA4-E743-4F86-84AB-25CD142B81D9}" name="Total - File" totalsRowDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{BBD033E8-B9B1-4C86-BA8C-5DEB1A84ABF8}" name="Total - Results" totalsRowFunction="custom" totalsRowDxfId="8">
       <totalsRowFormula>SUM(Tabelle1[Total - Results])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{E815B0BC-2BF7-4337-A646-A58A8D960F89}" name="Total - no comments - wrong language" totalsRowFunction="custom" totalsRowDxfId="5">
+    <tableColumn id="19" xr3:uid="{E815B0BC-2BF7-4337-A646-A58A8D960F89}" name="Total - no comments - wrong language" totalsRowFunction="custom" totalsRowDxfId="7">
       <totalsRowFormula>SUM(Tabelle1[Total - no comments - wrong language])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{FE9B4390-A10A-44F2-A47B-FDF76D40F995}" name="Total - Coded" totalsRowFunction="custom" totalsRowDxfId="4">
+    <tableColumn id="20" xr3:uid="{FE9B4390-A10A-44F2-A47B-FDF76D40F995}" name="Total - Coded" totalsRowFunction="custom" totalsRowDxfId="6">
       <totalsRowFormula>SUM(Tabelle1[Total - Coded])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B00E8E5C-73A1-467F-BA8E-83571799C375}" name="Comments - File" totalsRowDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{441A2C40-353C-40B2-A1ED-FF1D337CC208}" name="Comments" totalsRowDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{08A42BB0-A96D-420F-ADC6-D6A8885823DA}" name="Replies - File" totalsRowDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{2124F31D-22C6-45C6-AA93-E894805C40A8}" name="Replies" totalsRowDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{B00E8E5C-73A1-467F-BA8E-83571799C375}" name="Comments - File" totalsRowDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{441A2C40-353C-40B2-A1ED-FF1D337CC208}" name="Comments" totalsRowFunction="custom" totalsRowDxfId="4">
+      <totalsRowFormula>SUM(Tabelle1[Comments])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{08A42BB0-A96D-420F-ADC6-D6A8885823DA}" name="Replies - File" totalsRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{2124F31D-22C6-45C6-AA93-E894805C40A8}" name="Replies" totalsRowFunction="custom" totalsRowDxfId="2">
+      <totalsRowFormula>SUM(Tabelle1[Replies])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{A316EBBD-6C38-47F6-9F45-CAD2BC4C9DC1}" name="Comment Job" totalsRowDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{9C45999A-609C-49CC-B9EE-7B0961667497}" name="Status" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1455,35 +1482,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
-    <col min="4" max="4" width="27.81640625" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
-    <col min="9" max="9" width="24.453125" customWidth="1"/>
-    <col min="10" max="10" width="26.26953125" customWidth="1"/>
-    <col min="11" max="11" width="17.54296875" customWidth="1"/>
-    <col min="12" max="12" width="19.7265625" customWidth="1"/>
-    <col min="13" max="13" width="20.7265625" customWidth="1"/>
-    <col min="14" max="14" width="24.1796875" customWidth="1"/>
-    <col min="15" max="15" width="23.54296875" customWidth="1"/>
-    <col min="16" max="16" width="15.7265625" customWidth="1"/>
-    <col min="17" max="17" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1535,8 +1562,14 @@
       <c r="Q1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" t="s">
+        <v>146</v>
+      </c>
+      <c r="S1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
@@ -1576,8 +1609,20 @@
       <c r="M2">
         <v>176</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O2">
+        <v>29642</v>
+      </c>
+      <c r="Q2">
+        <v>25429</v>
+      </c>
+      <c r="R2">
+        <v>143</v>
+      </c>
+      <c r="S2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44044</v>
       </c>
@@ -1617,8 +1662,20 @@
       <c r="M3">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O3">
+        <v>15046</v>
+      </c>
+      <c r="Q3">
+        <v>14039</v>
+      </c>
+      <c r="R3">
+        <v>137</v>
+      </c>
+      <c r="S3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44075</v>
       </c>
@@ -1658,8 +1715,20 @@
       <c r="M4">
         <v>192</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O4">
+        <v>29560</v>
+      </c>
+      <c r="Q4">
+        <v>25325</v>
+      </c>
+      <c r="R4">
+        <v>136</v>
+      </c>
+      <c r="S4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44105</v>
       </c>
@@ -1699,8 +1768,20 @@
       <c r="M5">
         <v>161</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O5">
+        <v>22996</v>
+      </c>
+      <c r="Q5">
+        <v>17734</v>
+      </c>
+      <c r="R5">
+        <v>135</v>
+      </c>
+      <c r="S5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44136</v>
       </c>
@@ -1740,8 +1821,20 @@
       <c r="M6">
         <v>165</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O6">
+        <v>22767</v>
+      </c>
+      <c r="Q6">
+        <v>16521</v>
+      </c>
+      <c r="R6">
+        <v>134</v>
+      </c>
+      <c r="S6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44166</v>
       </c>
@@ -1781,8 +1874,20 @@
       <c r="M7">
         <v>173</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O7">
+        <v>25018</v>
+      </c>
+      <c r="Q7">
+        <v>21667</v>
+      </c>
+      <c r="R7">
+        <v>133</v>
+      </c>
+      <c r="S7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44197</v>
       </c>
@@ -1822,8 +1927,20 @@
       <c r="M8">
         <v>208</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O8">
+        <v>25317</v>
+      </c>
+      <c r="Q8">
+        <v>22770</v>
+      </c>
+      <c r="R8">
+        <v>132</v>
+      </c>
+      <c r="S8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44228</v>
       </c>
@@ -1863,8 +1980,20 @@
       <c r="M9">
         <v>182</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O9">
+        <v>27593</v>
+      </c>
+      <c r="Q9">
+        <v>23208</v>
+      </c>
+      <c r="R9">
+        <v>131</v>
+      </c>
+      <c r="S9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44256</v>
       </c>
@@ -1904,8 +2033,20 @@
       <c r="M10">
         <v>188</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O10">
+        <v>26788</v>
+      </c>
+      <c r="Q10">
+        <v>18680</v>
+      </c>
+      <c r="R10">
+        <v>130</v>
+      </c>
+      <c r="S10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44287</v>
       </c>
@@ -1945,8 +2086,20 @@
       <c r="M11">
         <v>212</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O11">
+        <v>36543</v>
+      </c>
+      <c r="Q11">
+        <v>24091</v>
+      </c>
+      <c r="R11">
+        <v>129</v>
+      </c>
+      <c r="S11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
@@ -1986,8 +2139,20 @@
       <c r="M12">
         <v>195</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O12">
+        <v>46018</v>
+      </c>
+      <c r="Q12">
+        <v>27738</v>
+      </c>
+      <c r="R12">
+        <v>128</v>
+      </c>
+      <c r="S12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44348</v>
       </c>
@@ -2027,8 +2192,20 @@
       <c r="M13">
         <v>174</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O13">
+        <v>24811</v>
+      </c>
+      <c r="Q13">
+        <v>18721</v>
+      </c>
+      <c r="R13">
+        <v>127</v>
+      </c>
+      <c r="S13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
@@ -2068,8 +2245,20 @@
       <c r="M14">
         <v>195</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O14">
+        <v>29266</v>
+      </c>
+      <c r="Q14">
+        <v>24167</v>
+      </c>
+      <c r="R14">
+        <v>144</v>
+      </c>
+      <c r="S14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>44409</v>
       </c>
@@ -2109,11 +2298,20 @@
       <c r="M15">
         <v>172</v>
       </c>
-      <c r="O15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O15">
+        <v>29646</v>
+      </c>
+      <c r="Q15">
+        <v>24479</v>
+      </c>
+      <c r="R15">
+        <v>104</v>
+      </c>
+      <c r="S15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>44440</v>
       </c>
@@ -2153,11 +2351,20 @@
       <c r="M16">
         <v>184</v>
       </c>
-      <c r="O16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O16">
+        <v>30671</v>
+      </c>
+      <c r="Q16">
+        <v>22813</v>
+      </c>
+      <c r="R16">
+        <v>103</v>
+      </c>
+      <c r="S16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>44470</v>
       </c>
@@ -2197,11 +2404,20 @@
       <c r="M17">
         <v>196</v>
       </c>
-      <c r="O17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O17">
+        <v>30107</v>
+      </c>
+      <c r="Q17">
+        <v>21933</v>
+      </c>
+      <c r="R17">
+        <v>102</v>
+      </c>
+      <c r="S17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>44501</v>
       </c>
@@ -2241,8 +2457,20 @@
       <c r="M18">
         <v>176</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O18">
+        <v>24947</v>
+      </c>
+      <c r="Q18">
+        <v>18602</v>
+      </c>
+      <c r="R18">
+        <v>145</v>
+      </c>
+      <c r="S18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>44531</v>
       </c>
@@ -2282,11 +2510,20 @@
       <c r="M19">
         <v>204</v>
       </c>
-      <c r="O19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O19">
+        <v>29057</v>
+      </c>
+      <c r="Q19">
+        <v>20811</v>
+      </c>
+      <c r="R19">
+        <v>89</v>
+      </c>
+      <c r="S19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>44562</v>
       </c>
@@ -2326,11 +2563,20 @@
       <c r="M20">
         <v>243</v>
       </c>
-      <c r="O20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O20">
+        <v>28579</v>
+      </c>
+      <c r="Q20">
+        <v>22400</v>
+      </c>
+      <c r="R20">
+        <v>87</v>
+      </c>
+      <c r="S20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>44593</v>
       </c>
@@ -2370,11 +2616,20 @@
       <c r="M21">
         <v>267</v>
       </c>
-      <c r="O21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O21">
+        <v>27856</v>
+      </c>
+      <c r="Q21">
+        <v>19099</v>
+      </c>
+      <c r="R21">
+        <v>85</v>
+      </c>
+      <c r="S21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="E22" s="2">
         <f>SUM(Tabelle1[Elektromobilität - Results])</f>
@@ -2404,11 +2659,22 @@
         <v>3783</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" s="2">
+        <f>SUM(Tabelle1[Comments])</f>
+        <v>562228</v>
+      </c>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q22" s="2">
+        <f>SUM(Tabelle1[Replies])</f>
+        <v>430227</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2416,7 +2682,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2425,7 +2691,7 @@
         <v>35352</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -2434,27 +2700,28 @@
         <v>3783</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>91</v>
       </c>
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>90</v>
       </c>
       <c r="B29" s="3"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B24" r:id="rId1" location=":~:text=Ausschlaggebend%20hierf%C3%BCr%20ist%20die%20Einf%C3%BChrung,und%20Ausfuhrkontrolle%20(%20BAFA%20)%20bearbeitet." xr:uid="{4EC37934-9CA7-4B8F-8C35-F4122F5952A6}"/>
   </hyperlinks>
